--- a/data/exampleData.xlsx
+++ b/data/exampleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb29372d236e1c92/Documents/alsPClustering/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{D546E323-80F6-403E-9674-9B879AB92172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77B153B0-77D1-4375-8F78-ED9B80306759}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{D546E323-80F6-403E-9674-9B879AB92172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6307AB30-3087-47E5-AE65-EBCEF7ACD055}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{63BC96D1-9EEF-47C8-A064-FDA8EC6A4E7C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{63BC96D1-9EEF-47C8-A064-FDA8EC6A4E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,6 +115,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A9F77D-2150-4B1F-B661-986DB1B7AAFA}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,7 +469,7 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(0,50)</f>
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,2)</f>
@@ -477,15 +481,15 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(50,70)</f>
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(3,100)</f>
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:I17" ca="1" si="0">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
@@ -502,34 +506,34 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" ca="1" si="1">RANDBETWEEN(0,50)</f>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="2">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="3">RANDBETWEEN(50,70)</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" ca="1" si="4">RANDBETWEEN(3,100)</f>
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -538,7 +542,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
@@ -549,11 +553,11 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
@@ -561,11 +565,11 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -574,7 +578,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
@@ -585,15 +589,15 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
@@ -610,30 +614,30 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
@@ -646,27 +650,27 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D38" ca="1" si="5">RANDBETWEEN(0,1)</f>
+        <f t="shared" ref="D7" ca="1" si="5">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
@@ -683,34 +687,34 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="4"/>
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -719,7 +723,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
@@ -730,15 +734,15 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
@@ -755,22 +759,22 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
@@ -778,7 +782,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
@@ -791,22 +795,22 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
@@ -814,7 +818,7 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
@@ -827,23 +831,23 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:D43" ca="1" si="6">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <f t="shared" ref="D12" ca="1" si="6">RANDBETWEEN(0,1)</f>
+        <v>1</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
@@ -855,7 +859,7 @@
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -864,7 +868,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
@@ -875,23 +879,23 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -900,7 +904,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
@@ -911,15 +915,15 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
@@ -927,7 +931,7 @@
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -936,34 +940,34 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -972,30 +976,30 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
@@ -1008,35 +1012,35 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:D48" ca="1" si="7">RANDBETWEEN(0,1)</f>
+        <f t="shared" ref="D17" ca="1" si="7">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1056,11 +1060,11 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18:I81" ca="1" si="8">RANDBETWEEN(0,1)</f>
@@ -1068,11 +1072,11 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1081,34 +1085,34 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1117,7 +1121,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
@@ -1132,15 +1136,15 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="8"/>
@@ -1153,7 +1157,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
@@ -1164,11 +1168,11 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="8"/>
@@ -1176,7 +1180,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="8"/>
@@ -1189,23 +1193,23 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:D53" ca="1" si="9">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <f t="shared" ref="D22" ca="1" si="9">RANDBETWEEN(0,1)</f>
+        <v>0</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="8"/>
@@ -1217,7 +1221,7 @@
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1226,7 +1230,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
@@ -1237,19 +1241,19 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="8"/>
@@ -1262,7 +1266,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
@@ -1273,11 +1277,11 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="8"/>
@@ -1285,7 +1289,7 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="8"/>
@@ -1298,26 +1302,26 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="8"/>
@@ -1334,26 +1338,26 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="8"/>
@@ -1361,7 +1365,7 @@
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1370,23 +1374,23 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:D58" ca="1" si="10">RANDBETWEEN(0,1)</f>
+        <f t="shared" ref="D27" ca="1" si="10">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="8"/>
@@ -1407,7 +1411,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
@@ -1418,7 +1422,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="4"/>
@@ -1430,11 +1434,11 @@
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1443,26 +1447,26 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="8"/>
@@ -1470,7 +1474,7 @@
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1479,22 +1483,22 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="8"/>
@@ -1502,11 +1506,11 @@
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1515,7 +1519,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="2"/>
@@ -1526,23 +1530,23 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1551,23 +1555,23 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:D63" ca="1" si="11">RANDBETWEEN(0,1)</f>
+        <f t="shared" ref="D32" ca="1" si="11">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="8"/>
@@ -1575,11 +1579,11 @@
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1588,7 +1592,7 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
@@ -1599,11 +1603,11 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="8"/>
@@ -1611,11 +1615,11 @@
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1624,34 +1628,34 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1660,7 +1664,7 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="2"/>
@@ -1671,15 +1675,15 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="8"/>
@@ -1696,22 +1700,22 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="8"/>
@@ -1732,35 +1736,35 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:D68" ca="1" si="12">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <f t="shared" ref="D37" ca="1" si="12">RANDBETWEEN(0,1)</f>
+        <v>1</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -1773,7 +1777,7 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1784,19 +1788,19 @@
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -1805,7 +1809,7 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
@@ -1816,11 +1820,11 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="8"/>
@@ -1841,7 +1845,7 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="2"/>
@@ -1852,15 +1856,15 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="8"/>
@@ -1868,7 +1872,7 @@
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -1877,26 +1881,26 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="8"/>
@@ -1913,27 +1917,27 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="D42">
-        <f t="shared" ref="D42:D73" ca="1" si="13">RANDBETWEEN(0,1)</f>
+        <f t="shared" ref="D42" ca="1" si="13">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="8"/>
@@ -1941,7 +1945,7 @@
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -1950,30 +1954,30 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="8"/>
@@ -1986,7 +1990,7 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="2"/>
@@ -1997,23 +2001,23 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -2022,22 +2026,22 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="8"/>
@@ -2049,7 +2053,7 @@
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -2058,7 +2062,7 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="2"/>
@@ -2069,19 +2073,19 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="8"/>
@@ -2094,23 +2098,23 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="D47">
-        <f t="shared" ref="D47:D78" ca="1" si="14">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <f t="shared" ref="D47" ca="1" si="14">RANDBETWEEN(0,1)</f>
+        <v>1</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="8"/>
@@ -2131,22 +2135,22 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="8"/>
@@ -2154,11 +2158,11 @@
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -2167,22 +2171,22 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="8"/>
@@ -2203,26 +2207,26 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="4"/>
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="8"/>
@@ -2230,7 +2234,7 @@
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -2239,30 +2243,30 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="8"/>
@@ -2275,31 +2279,31 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="D52">
-        <f t="shared" ref="D52:D83" ca="1" si="15">RANDBETWEEN(0,1)</f>
+        <f t="shared" ref="D52" ca="1" si="15">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="8"/>
@@ -2312,22 +2316,22 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="8"/>
@@ -2339,7 +2343,7 @@
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2348,7 +2352,7 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="2"/>
@@ -2359,11 +2363,11 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="8"/>
@@ -2375,7 +2379,7 @@
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -2384,26 +2388,26 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="8"/>
@@ -2411,7 +2415,7 @@
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -2420,22 +2424,22 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="8"/>
@@ -2447,7 +2451,7 @@
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -2456,31 +2460,31 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57:D100" ca="1" si="16">RANDBETWEEN(0,1)</f>
+        <f t="shared" ref="D57" ca="1" si="16">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="4"/>
         <v>64</v>
       </c>
-      <c r="F57">
-        <f t="shared" ca="1" si="4"/>
-        <v>86</v>
-      </c>
       <c r="G57">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="8"/>
@@ -2493,11 +2497,11 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2508,19 +2512,19 @@
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -2529,7 +2533,7 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="2"/>
@@ -2540,23 +2544,23 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -2565,7 +2569,7 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="2"/>
@@ -2576,23 +2580,23 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -2601,30 +2605,30 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="8"/>
@@ -2637,23 +2641,23 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <f t="shared" ref="D62:D100" ca="1" si="17">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <f t="shared" ref="D62" ca="1" si="17">RANDBETWEEN(0,1)</f>
+        <v>1</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="8"/>
@@ -2661,7 +2665,7 @@
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="8"/>
@@ -2674,30 +2678,30 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="8"/>
@@ -2710,7 +2714,7 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="2"/>
@@ -2725,7 +2729,7 @@
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="8"/>
@@ -2746,7 +2750,7 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="2"/>
@@ -2757,15 +2761,15 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="8"/>
@@ -2773,7 +2777,7 @@
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -2782,7 +2786,7 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="2"/>
@@ -2793,23 +2797,23 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -2818,23 +2822,23 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B100" ca="1" si="18">RANDBETWEEN(0,50)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C100" ca="1" si="19">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D100" ca="1" si="20">RANDBETWEEN(0,1)</f>
+        <f t="shared" ref="D67" ca="1" si="20">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E100" ca="1" si="21">RANDBETWEEN(50,70)</f>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F100" ca="1" si="22">RANDBETWEEN(3,100)</f>
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="8"/>
@@ -2842,11 +2846,11 @@
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -2855,26 +2859,26 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="18"/>
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="21"/>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="22"/>
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="8"/>
@@ -2891,7 +2895,7 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="18"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="19"/>
@@ -2902,15 +2906,15 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="21"/>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="22"/>
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="8"/>
@@ -2918,7 +2922,7 @@
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -2927,7 +2931,7 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="18"/>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="19"/>
@@ -2938,15 +2942,15 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="21"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="22"/>
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="8"/>
@@ -2954,7 +2958,7 @@
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -2963,22 +2967,22 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="18"/>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="19"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="21"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="22"/>
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="8"/>
@@ -2990,7 +2994,7 @@
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -2999,27 +3003,27 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="18"/>
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="D72:D100" ca="1" si="23">RANDBETWEEN(0,1)</f>
+        <f t="shared" ref="D72" ca="1" si="23">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="21"/>
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="22"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="8"/>
@@ -3036,7 +3040,7 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="18"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="19"/>
@@ -3047,23 +3051,23 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="21"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="22"/>
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -3072,26 +3076,26 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="18"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="21"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="22"/>
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="8"/>
@@ -3099,7 +3103,7 @@
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -3108,26 +3112,26 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="18"/>
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="19"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="21"/>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="22"/>
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="8"/>
@@ -3135,7 +3139,7 @@
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -3144,22 +3148,22 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="19"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="21"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="22"/>
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="8"/>
@@ -3167,11 +3171,11 @@
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -3180,23 +3184,23 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="18"/>
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="19"/>
         <v>2</v>
       </c>
       <c r="D77">
-        <f t="shared" ref="D77:D100" ca="1" si="24">RANDBETWEEN(0,1)</f>
+        <f t="shared" ref="D77" ca="1" si="24">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="21"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="22"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="8"/>
@@ -3204,11 +3208,11 @@
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -3217,7 +3221,7 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="18"/>
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="19"/>
@@ -3228,11 +3232,11 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="21"/>
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="22"/>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="8"/>
@@ -3244,7 +3248,7 @@
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -3253,7 +3257,7 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="18"/>
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="19"/>
@@ -3264,11 +3268,11 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="21"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="22"/>
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="8"/>
@@ -3280,7 +3284,7 @@
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -3289,7 +3293,7 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="18"/>
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="19"/>
@@ -3300,15 +3304,15 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="21"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="22"/>
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="8"/>
@@ -3325,26 +3329,26 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="18"/>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="21"/>
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="22"/>
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="8"/>
@@ -3361,27 +3365,27 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="18"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="19"/>
         <v>2</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82:D100" ca="1" si="25">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <f t="shared" ref="D82" ca="1" si="25">RANDBETWEEN(0,1)</f>
+        <v>0</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="21"/>
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="22"/>
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="G82">
         <f t="shared" ref="G82:I100" ca="1" si="26">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="26"/>
@@ -3398,11 +3402,11 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="18"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -3413,19 +3417,19 @@
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="22"/>
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -3434,7 +3438,7 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="18"/>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="19"/>
@@ -3445,11 +3449,11 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="21"/>
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="22"/>
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="26"/>
@@ -3457,7 +3461,7 @@
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="26"/>
@@ -3470,22 +3474,22 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="18"/>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="19"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="21"/>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="22"/>
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="26"/>
@@ -3493,7 +3497,7 @@
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="26"/>
@@ -3506,22 +3510,22 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="18"/>
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="21"/>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="22"/>
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="26"/>
@@ -3533,7 +3537,7 @@
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -3542,23 +3546,23 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <f t="shared" ref="D87:D100" ca="1" si="27">RANDBETWEEN(0,1)</f>
+        <f t="shared" ref="D87" ca="1" si="27">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="21"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="22"/>
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="26"/>
@@ -3566,11 +3570,11 @@
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -3579,7 +3583,7 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="18"/>
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="19"/>
@@ -3590,15 +3594,15 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="21"/>
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="22"/>
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="26"/>
@@ -3606,7 +3610,7 @@
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -3615,26 +3619,26 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="18"/>
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="21"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="22"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="26"/>
@@ -3642,7 +3646,7 @@
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -3651,34 +3655,34 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="18"/>
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="21"/>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="22"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -3687,30 +3691,30 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="18"/>
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="21"/>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="22"/>
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="26"/>
@@ -3723,31 +3727,31 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="18"/>
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
       <c r="D92">
-        <f t="shared" ref="D92:D100" ca="1" si="28">RANDBETWEEN(0,1)</f>
+        <f t="shared" ref="D92" ca="1" si="28">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="21"/>
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="22"/>
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="26"/>
@@ -3760,7 +3764,7 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="18"/>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="19"/>
@@ -3771,11 +3775,11 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="21"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="22"/>
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="26"/>
@@ -3787,7 +3791,7 @@
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -3796,26 +3800,26 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="18"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="21"/>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="22"/>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="26"/>
@@ -3832,7 +3836,7 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="18"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="19"/>
@@ -3843,15 +3847,15 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="21"/>
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="22"/>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="26"/>
@@ -3868,22 +3872,22 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="18"/>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="21"/>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="22"/>
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="26"/>
@@ -3891,11 +3895,11 @@
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -3904,23 +3908,23 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="18"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
       <c r="D97">
-        <f t="shared" ref="D97:D100" ca="1" si="29">RANDBETWEEN(0,1)</f>
+        <f t="shared" ref="D97" ca="1" si="29">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="21"/>
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="22"/>
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="26"/>
@@ -3928,7 +3932,7 @@
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="26"/>
@@ -3941,18 +3945,18 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="18"/>
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="19"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="21"/>
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="22"/>
@@ -3960,15 +3964,15 @@
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -3977,34 +3981,34 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="18"/>
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="19"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="21"/>
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="22"/>
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
@@ -4013,7 +4017,7 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="18"/>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="19"/>
@@ -4024,11 +4028,11 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="21"/>
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="22"/>
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="26"/>
@@ -4040,7 +4044,7 @@
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
